--- a/src/scores.xlsx
+++ b/src/scores.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,24 +466,256 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MI1111</t>
+          <t>MI1121</t>
         </is>
       </c>
       <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>7.85</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>20237467</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>EM3190</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
         <v>8</v>
       </c>
-      <c r="D2" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="F2" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>C</t>
+      <c r="E3" t="n">
+        <v>8</v>
+      </c>
+      <c r="F3" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>20237419</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>MI1121</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8</v>
+      </c>
+      <c r="E4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="F4" t="n">
+        <v>8.65</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>20237419</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>MI1131</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7</v>
+      </c>
+      <c r="E5" t="n">
+        <v>7</v>
+      </c>
+      <c r="F5" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>20231234</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>MI1121</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7</v>
+      </c>
+      <c r="E6" t="n">
+        <v>6</v>
+      </c>
+      <c r="F6" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>20231234</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>MI1131</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D7" t="n">
+        <v>7</v>
+      </c>
+      <c r="E7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="F7" t="n">
+        <v>7.85</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>20237367</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>MI1121</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>10</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6</v>
+      </c>
+      <c r="E8" t="n">
+        <v>7</v>
+      </c>
+      <c r="F8" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>20237367</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>MI1131</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>10</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7</v>
+      </c>
+      <c r="E9" t="n">
+        <v>7</v>
+      </c>
+      <c r="F9" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>20237419</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>EM3190</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>10</v>
+      </c>
+      <c r="D10" t="n">
+        <v>8</v>
+      </c>
+      <c r="E10" t="n">
+        <v>8</v>
+      </c>
+      <c r="F10" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>B+</t>
         </is>
       </c>
     </row>
